--- a/biology/Zoologie/Buse_(oiseau)/Buse_(oiseau).xlsx
+++ b/biology/Zoologie/Buse_(oiseau)/Buse_(oiseau).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme buse est le nom vernaculaire donné à certains rapaces diurnes, de la famille des Accipitridae. Ils se composent essentiellement des espèces du genre Buteo mais on trouve des buses réparties dans huit autres genres de la même famille. L'espèce la plus connue est la Buse variable.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces du genre Buteo</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Buse à gros bec — Buteo magnirostris
 Buse à épaulettes — Buteo lineatus
@@ -567,7 +581,9 @@
           <t>Autres espèces de buses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Buse échasse — Geranospiza caerulescens
 Buse plombée — Leucopternis plumbea
